--- a/porformance/考勤表byLUCASRISING.xlsx
+++ b/porformance/考勤表byLUCASRISING.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="271">
   <si>
     <t>学生课堂考勤表</t>
   </si>
@@ -919,6 +919,30 @@
   </si>
   <si>
     <t>9日</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>13日</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>13日</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>20日</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1622,7 +1646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1657,6 +1681,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2085,65 +2110,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="15"/>
     </row>
     <row r="2" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2200,14 +2225,14 @@
       <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2262,7 +2287,7 @@
       <c r="U4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="21"/>
+      <c r="V4" s="22"/>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -3353,65 +3378,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="15"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3468,14 +3493,14 @@
       <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3530,7 +3555,7 @@
       <c r="U4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="21"/>
+      <c r="V4" s="22"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -4520,65 +4545,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="15"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -4635,14 +4660,14 @@
       <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -4697,7 +4722,7 @@
       <c r="U4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="21"/>
+      <c r="V4" s="22"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -5615,10 +5640,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:F33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5627,65 +5652,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="15"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -5697,11 +5722,11 @@
       <c r="F3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
+      <c r="G3" s="11" t="s">
+        <v>266</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>5</v>
+        <v>269</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>5</v>
@@ -5742,14 +5767,14 @@
       <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="1" t="s">
         <v>255</v>
       </c>
@@ -5759,11 +5784,11 @@
       <c r="F4" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
+      <c r="G4" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>7</v>
+        <v>270</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>7</v>
@@ -5804,7 +5829,7 @@
       <c r="U4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="21"/>
+      <c r="V4" s="22"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -5825,8 +5850,12 @@
       <c r="F5" s="7">
         <v>100</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="7">
+        <v>100</v>
+      </c>
+      <c r="H5" s="7">
+        <v>90</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -5861,8 +5890,12 @@
       <c r="F6" s="7">
         <v>100</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="7">
+        <v>100</v>
+      </c>
+      <c r="H6" s="7">
+        <v>90</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -5894,7 +5927,9 @@
       <c r="E7" s="4"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7">
+        <v>90</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -5929,8 +5964,12 @@
       <c r="F8" s="7">
         <v>100</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="7">
+        <v>100</v>
+      </c>
+      <c r="H8" s="7">
+        <v>90</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -5965,8 +6004,12 @@
       <c r="F9" s="7">
         <v>100</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="7">
+        <v>100</v>
+      </c>
+      <c r="H9" s="7">
+        <v>90</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -6001,8 +6044,12 @@
       <c r="F10" s="7">
         <v>100</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="7">
+        <v>100</v>
+      </c>
+      <c r="H10" s="7">
+        <v>100</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -6035,7 +6082,9 @@
       <c r="F11" s="7">
         <v>100</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>100</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -6071,7 +6120,9 @@
       <c r="F12" s="7">
         <v>100</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>100</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -6107,8 +6158,12 @@
       <c r="F13" s="7">
         <v>100</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="7">
+        <v>100</v>
+      </c>
+      <c r="H13" s="7">
+        <v>100</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -6143,8 +6198,12 @@
       <c r="F14" s="7">
         <v>100</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="7">
+        <v>100</v>
+      </c>
+      <c r="H14" s="7">
+        <v>90</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -6179,7 +6238,9 @@
       <c r="F15" s="7">
         <v>100</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>100</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -6215,8 +6276,12 @@
       <c r="F16" s="7">
         <v>100</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="7">
+        <v>100</v>
+      </c>
+      <c r="H16" s="7">
+        <v>90</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -6232,7 +6297,7 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>110</v>
       </c>
@@ -6251,8 +6316,12 @@
       <c r="F17" s="7">
         <v>100</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="7">
+        <v>100</v>
+      </c>
+      <c r="H17" s="7">
+        <v>100</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -6268,7 +6337,7 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>111</v>
       </c>
@@ -6285,8 +6354,12 @@
       <c r="F18" s="7">
         <v>100</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="G18" s="7">
+        <v>100</v>
+      </c>
+      <c r="H18" s="7">
+        <v>90</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -6302,7 +6375,7 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>112</v>
       </c>
@@ -6321,8 +6394,12 @@
       <c r="F19" s="7">
         <v>100</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="7">
+        <v>100</v>
+      </c>
+      <c r="H19" s="7">
+        <v>90</v>
+      </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -6338,7 +6415,7 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>113</v>
       </c>
@@ -6357,8 +6434,12 @@
       <c r="F20" s="7">
         <v>100</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="7">
+        <v>100</v>
+      </c>
+      <c r="H20" s="7">
+        <v>90</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -6374,7 +6455,7 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>114</v>
       </c>
@@ -6393,8 +6474,12 @@
       <c r="F21" s="7">
         <v>100</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="G21" s="7">
+        <v>100</v>
+      </c>
+      <c r="H21" s="7">
+        <v>90</v>
+      </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -6410,7 +6495,7 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>115</v>
       </c>
@@ -6442,7 +6527,7 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
     </row>
-    <row r="23" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>116</v>
       </c>
@@ -6459,7 +6544,9 @@
       <c r="F23" s="7">
         <v>100</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>100</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -6476,7 +6563,7 @@
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>117</v>
       </c>
@@ -6495,8 +6582,12 @@
       <c r="F24" s="7">
         <v>100</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="G24" s="7">
+        <v>100</v>
+      </c>
+      <c r="H24" s="7">
+        <v>90</v>
+      </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -6511,8 +6602,11 @@
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X24" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>118</v>
       </c>
@@ -6544,7 +6638,7 @@
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>119</v>
       </c>
@@ -6578,7 +6672,7 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>120</v>
       </c>
@@ -6608,7 +6702,7 @@
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>121</v>
       </c>
@@ -6627,8 +6721,12 @@
       <c r="F28" s="7">
         <v>100</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="G28" s="7">
+        <v>100</v>
+      </c>
+      <c r="H28" s="7">
+        <v>90</v>
+      </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -6644,7 +6742,7 @@
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>122</v>
       </c>
@@ -6663,8 +6761,12 @@
       <c r="F29" s="7">
         <v>100</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="G29" s="7">
+        <v>100</v>
+      </c>
+      <c r="H29" s="7">
+        <v>90</v>
+      </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -6680,7 +6782,7 @@
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>123</v>
       </c>
@@ -6698,7 +6800,9 @@
         <v>100</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7">
+        <v>90</v>
+      </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -6714,7 +6818,7 @@
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>124</v>
       </c>
@@ -6731,8 +6835,12 @@
       <c r="F31" s="7">
         <v>100</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="G31" s="7">
+        <v>100</v>
+      </c>
+      <c r="H31" s="7">
+        <v>90</v>
+      </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -6748,7 +6856,7 @@
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>125</v>
       </c>
@@ -6767,8 +6875,12 @@
       <c r="F32" s="7">
         <v>100</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="G32" s="7">
+        <v>100</v>
+      </c>
+      <c r="H32" s="7">
+        <v>90</v>
+      </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -6803,8 +6915,12 @@
       <c r="F33" s="7">
         <v>100</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="G33" s="7">
+        <v>100</v>
+      </c>
+      <c r="H33" s="7">
+        <v>90</v>
+      </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -6821,65 +6937,65 @@
       <c r="V33" s="7"/>
     </row>
     <row r="36" spans="1:22" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="15"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="18"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -6889,7 +7005,7 @@
         <v>263</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>5</v>
+        <v>269</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>5</v>
@@ -6936,14 +7052,14 @@
       <c r="U38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V38" s="20" t="s">
+      <c r="V38" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="1" t="s">
         <v>260</v>
       </c>
@@ -6951,7 +7067,7 @@
         <v>264</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>7</v>
+        <v>268</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>7</v>
@@ -6998,7 +7114,7 @@
       <c r="U39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V39" s="21"/>
+      <c r="V39" s="22"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
@@ -7013,8 +7129,12 @@
       <c r="D40" s="9">
         <v>10</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10"/>
+      <c r="E40" s="9">
+        <v>60</v>
+      </c>
+      <c r="F40" s="10">
+        <v>67</v>
+      </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -7045,7 +7165,9 @@
       <c r="D41" s="9">
         <v>9.5</v>
       </c>
-      <c r="E41" s="9"/>
+      <c r="E41" s="9">
+        <v>74</v>
+      </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -7107,8 +7229,12 @@
       <c r="D43" s="9">
         <v>10</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="10"/>
+      <c r="E43" s="9">
+        <v>76</v>
+      </c>
+      <c r="F43" s="10">
+        <v>60</v>
+      </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
@@ -7139,8 +7265,12 @@
       <c r="D44" s="9">
         <v>9</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="10"/>
+      <c r="E44" s="9">
+        <v>60</v>
+      </c>
+      <c r="F44" s="10">
+        <v>63</v>
+      </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -7171,8 +7301,12 @@
       <c r="D45" s="9">
         <v>10</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="10"/>
+      <c r="E45" s="9">
+        <v>50</v>
+      </c>
+      <c r="F45" s="10">
+        <v>71</v>
+      </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
@@ -7203,8 +7337,12 @@
       <c r="D46" s="9">
         <v>9</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="10"/>
+      <c r="E46" s="9">
+        <v>47</v>
+      </c>
+      <c r="F46" s="10">
+        <v>65</v>
+      </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
@@ -7235,8 +7373,12 @@
       <c r="D47" s="9">
         <v>9</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="10"/>
+      <c r="E47" s="9">
+        <v>50</v>
+      </c>
+      <c r="F47" s="10">
+        <v>59</v>
+      </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
@@ -7267,8 +7409,12 @@
       <c r="D48" s="9">
         <v>10</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="10"/>
+      <c r="E48" s="9">
+        <v>95</v>
+      </c>
+      <c r="F48" s="10">
+        <v>79</v>
+      </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
@@ -7299,8 +7445,12 @@
       <c r="D49" s="9">
         <v>6</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="E49" s="10">
+        <v>30</v>
+      </c>
+      <c r="F49" s="10">
+        <v>58</v>
+      </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
@@ -7331,8 +7481,12 @@
       <c r="D50" s="10">
         <v>7</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="E50" s="10">
+        <v>35</v>
+      </c>
+      <c r="F50" s="10">
+        <v>59</v>
+      </c>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
@@ -7363,8 +7517,12 @@
       <c r="D51" s="9">
         <v>9</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="10"/>
+      <c r="E51" s="9">
+        <v>50</v>
+      </c>
+      <c r="F51" s="10">
+        <v>50</v>
+      </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -7395,8 +7553,12 @@
       <c r="D52" s="9">
         <v>10</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="10"/>
+      <c r="E52" s="9">
+        <v>86</v>
+      </c>
+      <c r="F52" s="10">
+        <v>79</v>
+      </c>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -7424,7 +7586,9 @@
       <c r="C53" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D53" s="9"/>
+      <c r="D53" s="9">
+        <v>9.5</v>
+      </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -7457,8 +7621,12 @@
       <c r="D54" s="9">
         <v>9</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="10"/>
+      <c r="E54" s="9">
+        <v>60</v>
+      </c>
+      <c r="F54" s="10">
+        <v>79</v>
+      </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
@@ -7489,8 +7657,12 @@
       <c r="D55" s="9">
         <v>9</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="10"/>
+      <c r="E55" s="9">
+        <v>60</v>
+      </c>
+      <c r="F55" s="10">
+        <v>75</v>
+      </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
@@ -7521,8 +7693,12 @@
       <c r="D56" s="9">
         <v>9</v>
       </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="10"/>
+      <c r="E56" s="9">
+        <v>70</v>
+      </c>
+      <c r="F56" s="10">
+        <v>68</v>
+      </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
@@ -7580,9 +7756,15 @@
       <c r="C58" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="D58" s="9">
+        <v>8</v>
+      </c>
+      <c r="E58" s="10">
+        <v>50</v>
+      </c>
+      <c r="F58" s="10">
+        <v>54</v>
+      </c>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
@@ -7613,8 +7795,12 @@
       <c r="D59" s="9">
         <v>7.5</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="10"/>
+      <c r="E59" s="9">
+        <v>45</v>
+      </c>
+      <c r="F59" s="10">
+        <v>63</v>
+      </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
@@ -7739,8 +7925,12 @@
       <c r="D63" s="9">
         <v>8</v>
       </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="10"/>
+      <c r="E63" s="9">
+        <v>25</v>
+      </c>
+      <c r="F63" s="10">
+        <v>56</v>
+      </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
@@ -7771,8 +7961,12 @@
       <c r="D64" s="9">
         <v>10</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
+      <c r="E64" s="10">
+        <v>42</v>
+      </c>
+      <c r="F64" s="10">
+        <v>61</v>
+      </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
@@ -7800,7 +7994,9 @@
       <c r="C65" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D65" s="9"/>
+      <c r="D65" s="9">
+        <v>8.5</v>
+      </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
@@ -7833,8 +8029,12 @@
       <c r="D66" s="9">
         <v>10</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
+      <c r="E66" s="10">
+        <v>66</v>
+      </c>
+      <c r="F66" s="10">
+        <v>55</v>
+      </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
@@ -7865,8 +8065,12 @@
       <c r="D67" s="9">
         <v>8.5</v>
       </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="10"/>
+      <c r="E67" s="9">
+        <v>47</v>
+      </c>
+      <c r="F67" s="10">
+        <v>63</v>
+      </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
@@ -7897,8 +8101,12 @@
       <c r="D68" s="9">
         <v>8.5</v>
       </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="10"/>
+      <c r="E68" s="9">
+        <v>55</v>
+      </c>
+      <c r="F68" s="10">
+        <v>63</v>
+      </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
@@ -7918,18 +8126,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:V2"/>
     <mergeCell ref="A36:V36"/>
     <mergeCell ref="A37:V37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="V38:V39"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:V2"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/porformance/考勤表byLUCASRISING.xlsx
+++ b/porformance/考勤表byLUCASRISING.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\课程\transport phenomena\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\课程\transport phenomena\transfer-TA\porformance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="270">
   <si>
     <t>学生课堂考勤表</t>
   </si>
@@ -919,10 +919,6 @@
   </si>
   <si>
     <t>9日</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -5643,7 +5639,7 @@
   <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5723,10 +5719,10 @@
         <v>261</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>5</v>
@@ -5785,10 +5781,10 @@
         <v>262</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>7</v>
@@ -6602,9 +6598,7 @@
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
-      <c r="X24" s="12" t="s">
-        <v>265</v>
-      </c>
+      <c r="X24" s="12"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
@@ -7005,7 +6999,7 @@
         <v>263</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>5</v>
@@ -7067,7 +7061,7 @@
         <v>264</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>7</v>
@@ -8126,18 +8120,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A36:V36"/>
+    <mergeCell ref="A37:V37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="V38:V39"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A36:V36"/>
-    <mergeCell ref="A37:V37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="V38:V39"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/porformance/考勤表byLUCASRISING.xlsx
+++ b/porformance/考勤表byLUCASRISING.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="274">
   <si>
     <t>学生课堂考勤表</t>
   </si>
@@ -939,6 +939,22 @@
   </si>
   <si>
     <t>20日</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>27日</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>3日</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -2092,7 +2108,7 @@
   </sheetPr>
   <dimension ref="A1:V133"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F40" sqref="F40:F43"/>
     </sheetView>
   </sheetViews>
@@ -5639,7 +5655,7 @@
   <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5725,10 +5741,10 @@
         <v>268</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>5</v>
+        <v>270</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>5</v>
@@ -5787,10 +5803,10 @@
         <v>269</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>7</v>
+        <v>271</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>7</v>
+        <v>273</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>7</v>
@@ -5853,7 +5869,9 @@
         <v>90</v>
       </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7">
+        <v>100</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -5967,7 +5985,9 @@
         <v>90</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7">
+        <v>100</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -6007,7 +6027,9 @@
         <v>90</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="7">
+        <v>100</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -6047,7 +6069,9 @@
         <v>100</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7">
+        <v>100</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -6083,7 +6107,9 @@
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="J11" s="7">
+        <v>100</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -6121,7 +6147,9 @@
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="J12" s="7">
+        <v>100</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -6161,7 +6189,9 @@
         <v>100</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="J13" s="7">
+        <v>100</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -6201,7 +6231,9 @@
         <v>90</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="J14" s="7">
+        <v>100</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -6279,7 +6311,9 @@
         <v>90</v>
       </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="J16" s="7">
+        <v>100</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -6319,7 +6353,9 @@
         <v>100</v>
       </c>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="J17" s="7">
+        <v>100</v>
+      </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -6357,7 +6393,9 @@
         <v>90</v>
       </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="J18" s="7">
+        <v>100</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -6397,7 +6435,9 @@
         <v>90</v>
       </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="J19" s="7">
+        <v>100</v>
+      </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -6437,7 +6477,9 @@
         <v>90</v>
       </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="J20" s="7">
+        <v>100</v>
+      </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -6477,7 +6519,9 @@
         <v>90</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="J21" s="7">
+        <v>90</v>
+      </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
@@ -6545,7 +6589,9 @@
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="J23" s="7">
+        <v>100</v>
+      </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -6585,7 +6631,9 @@
         <v>90</v>
       </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="J24" s="7">
+        <v>100</v>
+      </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -6722,7 +6770,9 @@
         <v>90</v>
       </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="J28" s="7">
+        <v>100</v>
+      </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -6762,7 +6812,9 @@
         <v>90</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="J29" s="7">
+        <v>100</v>
+      </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -6798,7 +6850,9 @@
         <v>90</v>
       </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="J30" s="7">
+        <v>100</v>
+      </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -6836,7 +6890,9 @@
         <v>90</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="J31" s="7">
+        <v>100</v>
+      </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
@@ -6876,7 +6932,9 @@
         <v>90</v>
       </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="J32" s="7">
+        <v>100</v>
+      </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
@@ -6916,7 +6974,9 @@
         <v>90</v>
       </c>
       <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="J33" s="7">
+        <v>100</v>
+      </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
@@ -8120,18 +8180,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:V2"/>
     <mergeCell ref="A36:V36"/>
     <mergeCell ref="A37:V37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="V38:V39"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:V2"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
